--- a/GMLA loading analysis/PID_PMsystem_PRweb/score_and_count.xlsx
+++ b/GMLA loading analysis/PID_PMsystem_PRweb/score_and_count.xlsx
@@ -91,10 +91,10 @@
     <t>DPQE</t>
   </si>
   <si>
-    <t>weighted_score</t>
-  </si>
-  <si>
-    <t>Project Name</t>
+    <t>weighted_score_multi projects</t>
+  </si>
+  <si>
+    <t>Project counts</t>
   </si>
   <si>
     <t>Fu, Ernest</t>
@@ -572,22 +572,22 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K2">
         <v>2</v>
       </c>
       <c r="L2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O2">
         <v>6</v>
@@ -617,7 +617,7 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -626,37 +626,37 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L4">
         <v>6</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N4">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="P4">
         <v>4</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R4">
         <v>1</v>
@@ -689,10 +689,10 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>8</v>
@@ -749,7 +749,7 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -758,16 +758,16 @@
         <v>8</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N6">
         <v>3</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6">
         <v>1</v>
@@ -779,13 +779,13 @@
         <v>32</v>
       </c>
       <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="F7">
         <v>9</v>
       </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
       <c r="G7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>3</v>

--- a/GMLA loading analysis/PID_PMsystem_PRweb/score_and_count.xlsx
+++ b/GMLA loading analysis/PID_PMsystem_PRweb/score_and_count.xlsx
@@ -94,7 +94,7 @@
     <t>weighted_score_multi projects</t>
   </si>
   <si>
-    <t>Project counts</t>
+    <t>Multi_Projects_in_PRweb</t>
   </si>
   <si>
     <t>Fu, Ernest</t>
@@ -827,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>4</v>
@@ -839,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S8">
         <v>3</v>
@@ -848,13 +848,13 @@
         <v>3</v>
       </c>
       <c r="U8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V8">
         <v>1</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -871,22 +871,22 @@
         <v>2</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -916,7 +916,7 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -925,37 +925,37 @@
         <v>1</v>
       </c>
       <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
       <c r="H11">
         <v>2</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L11">
         <v>2</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P11">
         <v>2</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -988,10 +988,10 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -1048,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1057,16 +1057,16 @@
         <v>3</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -1078,13 +1078,13 @@
         <v>32</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1147,13 +1147,13 @@
         <v>1</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V15">
         <v>1</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
